--- a/data/trans_camb/P24_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_6_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,36</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>9,21</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,56</t>
+          <t>-4,06; 4,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,94</t>
+          <t>-2,02; 6,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,54</t>
+          <t>0,19; 9,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,03</t>
+          <t>0,6; 10,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 7,5</t>
+          <t>3,57; 14,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 7,59</t>
+          <t>-2,97; 7,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,01</t>
+          <t>-2,9; 7,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 17,53</t>
+          <t>-1,17; 8,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,47</t>
+          <t>-0,73; 8,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,17</t>
+          <t>-0,02; 10,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 7,18</t>
+          <t>4,41; 15,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 15,71</t>
+          <t>-2,18; 7,3</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 5,16</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 5,97</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 7,52</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 9,11</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 13,49</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 6,07</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 28,64</t>
+          <t>-20,85; 29,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 43,79</t>
+          <t>-9,8; 41,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 54,06</t>
+          <t>0,82; 60,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,08; 101,99</t>
+          <t>3,23; 66,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 24,01</t>
+          <t>13,47; 71,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 24,0</t>
+          <t>-9,45; 26,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 25,63</t>
+          <t>-7,8; 23,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,5; 56,84</t>
+          <t>-3,41; 26,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 17,79</t>
+          <t>-2,37; 27,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 25,07</t>
+          <t>-0,18; 34,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 29,69</t>
+          <t>10,4; 43,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,68; 63,28</t>
+          <t>-4,45; 16,21</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 21,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 24,3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 30,76</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 37,15</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,64; 46,88</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 16,94</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,5</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,79</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>12,9</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 6,92</t>
+          <t>-4,01; 7,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 12,27</t>
+          <t>0,67; 11,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,52</t>
+          <t>3,41; 14,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 23,37</t>
+          <t>5,5; 17,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 4,14</t>
+          <t>-2,39; 12,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,76</t>
+          <t>-8,97; 8,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,67</t>
+          <t>-6,86; 5,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 23,52</t>
+          <t>-3,28; 7,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 3,98</t>
+          <t>2,21; 13,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 8,13</t>
+          <t>8,13; 20,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 12,47</t>
+          <t>-8,13; 8,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 21,02</t>
+          <t>-11,23; 8,17</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 4,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 8,13</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 12,68</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 17,38</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 8,3</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 6,59</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>54,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,54%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>53,22%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 48,94</t>
+          <t>-22,84; 48,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 84,72</t>
+          <t>3,71; 83,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 102,27</t>
+          <t>16,04; 97,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,14; 159,09</t>
+          <t>28,58; 118,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 14,21</t>
+          <t>-8,23; 51,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 27,69</t>
+          <t>-23,56; 31,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 46,47</t>
+          <t>-19,69; 17,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,34; 82,87</t>
+          <t>-9,72; 26,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 17,56</t>
+          <t>6,44; 47,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 37,15</t>
+          <t>23,16; 71,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 56,97</t>
+          <t>-16,67; 19,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,6; 93,37</t>
+          <t>-21,17; 19,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 18,88</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 36,42</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 56,38</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>31,36; 75,37</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 23,57</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-15,82; 17,76</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,9</t>
+          <t>15,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>22,35</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>7,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,01</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>9,76</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10,46</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>11,36</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 6,87</t>
+          <t>-14,02; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 6,99</t>
+          <t>-11,12; 7,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 26,48</t>
+          <t>4,52; 28,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>9,24; 38,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 14,27</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 17,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 14,37</t>
+          <t>-8,18; 13,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-1,47; 18,15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 16,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 11,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-8,76; 6,52</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 9,15</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 17,01</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 5,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 10,73</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 18,47</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 22,04</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,58%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,83%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>118,22%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,51%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-2,92%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,62%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>38,7%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>45,07%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 55,36</t>
+          <t>-58,21; 45,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 52,03</t>
+          <t>-45,42; 51,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,79; 192,29</t>
+          <t>15,85; 194,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>36,0; 264,45</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-22,78; 55,64</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 67,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 52,59</t>
+          <t>-22,59; 51,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-4,85; 68,95</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,51; 61,39</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 41,35</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-30,39; 30,57</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; 41,38</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 76,4</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-30,27; 26,73</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-13,39; 49,42</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 84,09</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>9,83; 97,05</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,08</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,26</t>
+          <t>-2,93; 3,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,03</t>
+          <t>0,04; 6,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,96</t>
+          <t>4,5; 11,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 16,97</t>
+          <t>6,29; 14,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,03</t>
+          <t>0,6; 9,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,55</t>
+          <t>-2,06; 6,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 8,8</t>
+          <t>-2,41; 4,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 18,38</t>
+          <t>0,41; 6,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,52</t>
+          <t>1,96; 9,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,6</t>
+          <t>4,55; 12,11</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,9</t>
+          <t>3,12; 12,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,8; 16,5</t>
+          <t>-3,32; 6,33</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 2,91</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 5,75</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 9,14</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 11,84</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 9,45</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 4,82</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>35,76%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 20,49</t>
+          <t>-15,38; 21,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 44,27</t>
+          <t>0,22; 41,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,31; 68,35</t>
+          <t>23,98; 68,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,21; 104,91</t>
+          <t>33,12; 85,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 12,92</t>
+          <t>1,66; 38,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 20,99</t>
+          <t>-6,19; 24,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,67; 27,83</t>
+          <t>-7,08; 14,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,38; 59,33</t>
+          <t>1,3; 22,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 10,19</t>
+          <t>5,97; 29,75</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 23,68</t>
+          <t>13,19; 38,93</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,96; 36,45</t>
+          <t>7,29; 30,93</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>40,83; 68,21</t>
+          <t>-6,83; 13,96</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 12,0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 23,86</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>15,55; 38,07</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 48,39</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 29,03</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 12,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
